--- a/Design/DataTable/GlobalSystem.xlsx
+++ b/Design/DataTable/GlobalSystem.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44631C1-8ADF-48D2-B24D-33D3EA02EDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61A5C61-FC50-4C27-91E5-5304C34F9D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +67,22 @@
   </si>
   <si>
     <t>증강체 버프  개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiningNumMin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiningNumMax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채굴최소횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채굴최대횟수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +102,13 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -99,10 +133,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,24 +421,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D20" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="64.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -429,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -441,6 +478,34 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/GlobalSystem.xlsx
+++ b/Design/DataTable/GlobalSystem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61A5C61-FC50-4C27-91E5-5304C34F9D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66533682-DD3F-4976-A1AB-92C60E224F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,27 +61,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NumberOfUpgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>증강체 버프  개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MiningNumMin</t>
+    <t>채굴최소횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채굴최대횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start_Ground_Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mining_Num_Max</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MiningNumMax</t>
+    <t>Mining_Num_Min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>채굴최소횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채굴최대횟수</t>
+    <t>Number_Of_Upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 시작 시작 시 열려있는 그라운드 개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,24 +428,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="64.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="8.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -466,46 +473,60 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/GlobalSystem.xlsx
+++ b/Design/DataTable/GlobalSystem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66533682-DD3F-4976-A1AB-92C60E224F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E2CF89-FFA2-4779-9CE7-17464D2005A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -481,7 +481,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>

--- a/Design/DataTable/GlobalSystem.xlsx
+++ b/Design/DataTable/GlobalSystem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\Project\PlumTowerDefence\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\PlumTowerDefecne-main\PlumTowerDefecne-main\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E2CF89-FFA2-4779-9CE7-17464D2005A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A9179-E0FA-4943-AB7D-63BE717BEA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21645" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,22 @@
   </si>
   <si>
     <t>첫 시작 시작 시 열려있는 그라운드 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_Size_Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_Size_Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 최소 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 최대 크기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,6 +545,34 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/DataTable/GlobalSystem.xlsx
+++ b/Design/DataTable/GlobalSystem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\PlumTowerDefecne-main\PlumTowerDefecne-main\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A9179-E0FA-4943-AB7D-63BE717BEA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3930F0FE-7DCB-4227-8F7F-8958B143DCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21645" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,14 @@
   </si>
   <si>
     <t>타워 최대 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch_Number_Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격로 분기점 최대 개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,24 +452,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="64.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -489,7 +497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -503,7 +511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -517,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -531,7 +539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -545,7 +553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -559,7 +567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -571,6 +579,20 @@
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/GlobalSystem.xlsx
+++ b/Design/DataTable/GlobalSystem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seobok\Desktop\unity\TowerDefence\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3930F0FE-7DCB-4227-8F7F-8958B143DCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08382DD3-DA99-41FB-9867-EA0F16B4552D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4404" yWindow="2592" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +112,22 @@
   </si>
   <si>
     <t>공격로 분기점 최대 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 사용자의 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 사용자의 돈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -595,6 +609,34 @@
         <v>19</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/DataTable/GlobalSystem.xlsx
+++ b/Design/DataTable/GlobalSystem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seobok\Desktop\unity\TowerDefence\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신동훈\Downloads\PlumTowerDefecne-main\PlumTowerDefecne-main\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08382DD3-DA99-41FB-9867-EA0F16B4552D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06018C5-3FB7-4313-9146-288990638E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4404" yWindow="2592" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23880" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,14 @@
   </si>
   <si>
     <t>인게임 사용자의 돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_Upgrade_Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 최대 업그레이드 횟수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,24 +474,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="64.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="8.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -511,7 +519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -525,7 +533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,7 +547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -553,7 +561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,7 +575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -581,7 +589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -595,7 +603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -609,7 +617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -623,7 +631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -635,6 +643,20 @@
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
